--- a/Diagramme/Gantt Diagramm.xlsx
+++ b/Diagramme/Gantt Diagramm.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c3b25c6362bf5328/Desktop/Schule/AIF31/SOFT/Diagramme/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marcel\Desktop\Schule\Software\SnakeProjekt\Diagramme\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="22" documentId="13_ncr:1_{90C651A4-4EA6-47FF-A50D-BC5073421537}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CD68E93B-655F-4CA8-8F25-B74A378D1BEC}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0BC19DB-C53E-4DE9-AD15-81ABF122837B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="132" yWindow="192" windowWidth="17280" windowHeight="10764" xr2:uid="{F50B8E01-466F-450A-9E3D-73D80AFD844B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{F50B8E01-466F-450A-9E3D-73D80AFD844B}"/>
   </bookViews>
   <sheets>
     <sheet name="Gantt-Dagramm" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="33">
   <si>
     <t>Phase</t>
   </si>
@@ -133,6 +133,9 @@
   </si>
   <si>
     <t>In Arbeit</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -205,7 +208,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -458,24 +461,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -519,18 +509,19 @@
     <xf numFmtId="14" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="180"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="180"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -845,22 +836,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C07C4ED3-0F61-4723-B627-24D96E92AA05}">
-  <dimension ref="A1:BN13"/>
+  <dimension ref="A1:CI13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T21" sqref="T20:U21"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AY24" sqref="AY24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="66" width="2.88671875" customWidth="1"/>
+    <col min="1" max="1" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="87" width="2.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:66" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:66" ht="90" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:87" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:87" ht="90" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
         <v>0</v>
       </c>
@@ -1056,11 +1047,74 @@
       <c r="BM2" s="36">
         <v>44912</v>
       </c>
-      <c r="BN2" s="37">
+      <c r="BN2" s="36">
         <v>44913</v>
       </c>
+      <c r="BO2" s="44">
+        <v>44914</v>
+      </c>
+      <c r="BP2" s="44">
+        <v>44915</v>
+      </c>
+      <c r="BQ2" s="44">
+        <v>44916</v>
+      </c>
+      <c r="BR2" s="44">
+        <v>44917</v>
+      </c>
+      <c r="BS2" s="44">
+        <v>44918</v>
+      </c>
+      <c r="BT2" s="36">
+        <v>44919</v>
+      </c>
+      <c r="BU2" s="36">
+        <v>44920</v>
+      </c>
+      <c r="BV2" s="44">
+        <v>44921</v>
+      </c>
+      <c r="BW2" s="44">
+        <v>44922</v>
+      </c>
+      <c r="BX2" s="44">
+        <v>44923</v>
+      </c>
+      <c r="BY2" s="44">
+        <v>44924</v>
+      </c>
+      <c r="BZ2" s="44">
+        <v>44925</v>
+      </c>
+      <c r="CA2" s="36">
+        <v>44926</v>
+      </c>
+      <c r="CB2" s="36">
+        <v>44927</v>
+      </c>
+      <c r="CC2" s="44">
+        <v>44928</v>
+      </c>
+      <c r="CD2" s="44">
+        <v>44929</v>
+      </c>
+      <c r="CE2" s="44">
+        <v>44930</v>
+      </c>
+      <c r="CF2" s="44">
+        <v>44931</v>
+      </c>
+      <c r="CG2" s="44">
+        <v>44932</v>
+      </c>
+      <c r="CH2" s="36">
+        <v>44933</v>
+      </c>
+      <c r="CI2" s="43">
+        <v>44934</v>
+      </c>
     </row>
-    <row r="3" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A3" s="21" t="s">
         <v>2</v>
       </c>
@@ -1126,13 +1180,34 @@
       <c r="BG3" s="6"/>
       <c r="BH3" s="6"/>
       <c r="BI3" s="6"/>
-      <c r="BJ3" s="38"/>
+      <c r="BJ3" s="6"/>
       <c r="BK3" s="6"/>
       <c r="BL3" s="6"/>
       <c r="BM3" s="6"/>
-      <c r="BN3" s="13"/>
+      <c r="BN3" s="6"/>
+      <c r="BO3" s="6"/>
+      <c r="BP3" s="6"/>
+      <c r="BQ3" s="6"/>
+      <c r="BR3" s="6"/>
+      <c r="BS3" s="6"/>
+      <c r="BT3" s="6"/>
+      <c r="BU3" s="6"/>
+      <c r="BV3" s="6"/>
+      <c r="BW3" s="6"/>
+      <c r="BX3" s="6"/>
+      <c r="BY3" s="6"/>
+      <c r="BZ3" s="6"/>
+      <c r="CA3" s="6"/>
+      <c r="CB3" s="6"/>
+      <c r="CC3" s="6"/>
+      <c r="CD3" s="6"/>
+      <c r="CE3" s="6"/>
+      <c r="CF3" s="6"/>
+      <c r="CG3" s="6"/>
+      <c r="CH3" s="6"/>
+      <c r="CI3" s="13"/>
     </row>
-    <row r="4" spans="1:66" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:87" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="24" t="s">
         <v>14</v>
       </c>
@@ -1164,7 +1239,7 @@
       <c r="W4" s="1"/>
       <c r="X4" s="1"/>
       <c r="Y4" s="1"/>
-      <c r="Z4" s="38"/>
+      <c r="Z4" s="37"/>
       <c r="AA4" s="2"/>
       <c r="AB4" s="2"/>
       <c r="AC4" s="2"/>
@@ -1200,13 +1275,34 @@
       <c r="BG4" s="2"/>
       <c r="BH4" s="2"/>
       <c r="BI4" s="2"/>
-      <c r="BJ4" s="38"/>
+      <c r="BJ4" s="2"/>
       <c r="BK4" s="2"/>
       <c r="BL4" s="2"/>
       <c r="BM4" s="2"/>
-      <c r="BN4" s="12"/>
+      <c r="BN4" s="2"/>
+      <c r="BO4" s="2"/>
+      <c r="BP4" s="2"/>
+      <c r="BQ4" s="2"/>
+      <c r="BR4" s="2"/>
+      <c r="BS4" s="2"/>
+      <c r="BT4" s="2"/>
+      <c r="BU4" s="2"/>
+      <c r="BV4" s="2"/>
+      <c r="BW4" s="2"/>
+      <c r="BX4" s="2"/>
+      <c r="BY4" s="2"/>
+      <c r="BZ4" s="2"/>
+      <c r="CA4" s="2"/>
+      <c r="CB4" s="2"/>
+      <c r="CC4" s="2"/>
+      <c r="CD4" s="2"/>
+      <c r="CE4" s="2"/>
+      <c r="CF4" s="2"/>
+      <c r="CG4" s="2"/>
+      <c r="CH4" s="2"/>
+      <c r="CI4" s="12"/>
     </row>
-    <row r="5" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A5" s="26" t="s">
         <v>6</v>
       </c>
@@ -1266,19 +1362,42 @@
       <c r="BA5" s="6"/>
       <c r="BB5" s="6"/>
       <c r="BC5" s="6"/>
-      <c r="BD5" s="44"/>
+      <c r="BD5" s="6"/>
       <c r="BE5" s="6"/>
       <c r="BF5" s="6"/>
       <c r="BG5" s="6"/>
       <c r="BH5" s="6"/>
       <c r="BI5" s="6"/>
-      <c r="BJ5" s="38"/>
+      <c r="BJ5" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="BK5" s="6"/>
       <c r="BL5" s="6"/>
       <c r="BM5" s="6"/>
-      <c r="BN5" s="13"/>
+      <c r="BN5" s="6"/>
+      <c r="BO5" s="6"/>
+      <c r="BP5" s="6"/>
+      <c r="BQ5" s="6"/>
+      <c r="BR5" s="6"/>
+      <c r="BS5" s="6"/>
+      <c r="BT5" s="6"/>
+      <c r="BU5" s="6"/>
+      <c r="BV5" s="6"/>
+      <c r="BW5" s="6"/>
+      <c r="BX5" s="6"/>
+      <c r="BY5" s="6"/>
+      <c r="BZ5" s="6"/>
+      <c r="CA5" s="6"/>
+      <c r="CB5" s="6"/>
+      <c r="CC5" s="6"/>
+      <c r="CD5" s="6"/>
+      <c r="CE5" s="6"/>
+      <c r="CF5" s="6"/>
+      <c r="CG5" s="6"/>
+      <c r="CH5" s="6"/>
+      <c r="CI5" s="13"/>
     </row>
-    <row r="6" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>15</v>
       </c>
@@ -1331,7 +1450,7 @@
       <c r="AR6" s="1"/>
       <c r="AS6" s="1"/>
       <c r="AT6" s="1"/>
-      <c r="AU6" s="38"/>
+      <c r="AU6" s="37"/>
       <c r="AV6" s="2"/>
       <c r="AW6" s="2"/>
       <c r="AX6" s="2"/>
@@ -1340,19 +1459,40 @@
       <c r="BA6" s="2"/>
       <c r="BB6" s="2"/>
       <c r="BC6" s="2"/>
-      <c r="BD6" s="45"/>
+      <c r="BD6" s="42"/>
       <c r="BE6" s="2"/>
       <c r="BF6" s="2"/>
       <c r="BG6" s="2"/>
       <c r="BH6" s="2"/>
       <c r="BI6" s="2"/>
-      <c r="BJ6" s="38"/>
+      <c r="BJ6" s="2"/>
       <c r="BK6" s="2"/>
       <c r="BL6" s="2"/>
       <c r="BM6" s="2"/>
-      <c r="BN6" s="12"/>
+      <c r="BN6" s="2"/>
+      <c r="BO6" s="2"/>
+      <c r="BP6" s="2"/>
+      <c r="BQ6" s="2"/>
+      <c r="BR6" s="2"/>
+      <c r="BS6" s="2"/>
+      <c r="BT6" s="2"/>
+      <c r="BU6" s="2"/>
+      <c r="BV6" s="2"/>
+      <c r="BW6" s="2"/>
+      <c r="BX6" s="2"/>
+      <c r="BY6" s="2"/>
+      <c r="BZ6" s="2"/>
+      <c r="CA6" s="2"/>
+      <c r="CB6" s="2"/>
+      <c r="CC6" s="2"/>
+      <c r="CD6" s="2"/>
+      <c r="CE6" s="2"/>
+      <c r="CF6" s="2"/>
+      <c r="CG6" s="2"/>
+      <c r="CH6" s="2"/>
+      <c r="CI6" s="12"/>
     </row>
-    <row r="7" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>17</v>
       </c>
@@ -1405,7 +1545,7 @@
       <c r="AR7" s="1"/>
       <c r="AS7" s="1"/>
       <c r="AT7" s="1"/>
-      <c r="AU7" s="38"/>
+      <c r="AU7" s="37"/>
       <c r="AV7" s="6"/>
       <c r="AW7" s="6"/>
       <c r="AX7" s="6"/>
@@ -1414,19 +1554,40 @@
       <c r="BA7" s="6"/>
       <c r="BB7" s="6"/>
       <c r="BC7" s="6"/>
-      <c r="BD7" s="44"/>
+      <c r="BD7" s="6"/>
       <c r="BE7" s="6"/>
       <c r="BF7" s="6"/>
       <c r="BG7" s="6"/>
       <c r="BH7" s="6"/>
       <c r="BI7" s="6"/>
-      <c r="BJ7" s="38"/>
+      <c r="BJ7" s="6"/>
       <c r="BK7" s="6"/>
       <c r="BL7" s="6"/>
       <c r="BM7" s="6"/>
-      <c r="BN7" s="13"/>
+      <c r="BN7" s="6"/>
+      <c r="BO7" s="6"/>
+      <c r="BP7" s="6"/>
+      <c r="BQ7" s="6"/>
+      <c r="BR7" s="6"/>
+      <c r="BS7" s="6"/>
+      <c r="BT7" s="6"/>
+      <c r="BU7" s="6"/>
+      <c r="BV7" s="6"/>
+      <c r="BW7" s="6"/>
+      <c r="BX7" s="6"/>
+      <c r="BY7" s="6"/>
+      <c r="BZ7" s="6"/>
+      <c r="CA7" s="6"/>
+      <c r="CB7" s="6"/>
+      <c r="CC7" s="6"/>
+      <c r="CD7" s="6"/>
+      <c r="CE7" s="6"/>
+      <c r="CF7" s="6"/>
+      <c r="CG7" s="6"/>
+      <c r="CH7" s="6"/>
+      <c r="CI7" s="13"/>
     </row>
-    <row r="8" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>19</v>
       </c>
@@ -1479,7 +1640,7 @@
       <c r="AR8" s="1"/>
       <c r="AS8" s="1"/>
       <c r="AT8" s="1"/>
-      <c r="AU8" s="38"/>
+      <c r="AU8" s="37"/>
       <c r="AV8" s="2"/>
       <c r="AW8" s="2"/>
       <c r="AX8" s="2"/>
@@ -1494,13 +1655,34 @@
       <c r="BG8" s="2"/>
       <c r="BH8" s="2"/>
       <c r="BI8" s="2"/>
-      <c r="BJ8" s="38"/>
+      <c r="BJ8" s="2"/>
       <c r="BK8" s="2"/>
       <c r="BL8" s="2"/>
       <c r="BM8" s="2"/>
-      <c r="BN8" s="12"/>
+      <c r="BN8" s="2"/>
+      <c r="BO8" s="2"/>
+      <c r="BP8" s="2"/>
+      <c r="BQ8" s="2"/>
+      <c r="BR8" s="2"/>
+      <c r="BS8" s="2"/>
+      <c r="BT8" s="2"/>
+      <c r="BU8" s="2"/>
+      <c r="BV8" s="2"/>
+      <c r="BW8" s="2"/>
+      <c r="BX8" s="2"/>
+      <c r="BY8" s="2"/>
+      <c r="BZ8" s="2"/>
+      <c r="CA8" s="2"/>
+      <c r="CB8" s="2"/>
+      <c r="CC8" s="2"/>
+      <c r="CD8" s="2"/>
+      <c r="CE8" s="2"/>
+      <c r="CF8" s="2"/>
+      <c r="CG8" s="2"/>
+      <c r="CH8" s="2"/>
+      <c r="CI8" s="12"/>
     </row>
-    <row r="9" spans="1:66" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:87" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
         <v>21</v>
       </c>
@@ -1553,7 +1735,7 @@
       <c r="AR9" s="1"/>
       <c r="AS9" s="1"/>
       <c r="AT9" s="1"/>
-      <c r="AU9" s="38"/>
+      <c r="AU9" s="37"/>
       <c r="AV9" s="6"/>
       <c r="AW9" s="6"/>
       <c r="AX9" s="6"/>
@@ -1568,13 +1750,34 @@
       <c r="BG9" s="6"/>
       <c r="BH9" s="6"/>
       <c r="BI9" s="6"/>
-      <c r="BJ9" s="38"/>
+      <c r="BJ9" s="6"/>
       <c r="BK9" s="6"/>
       <c r="BL9" s="6"/>
       <c r="BM9" s="6"/>
-      <c r="BN9" s="13"/>
+      <c r="BN9" s="6"/>
+      <c r="BO9" s="6"/>
+      <c r="BP9" s="6"/>
+      <c r="BQ9" s="6"/>
+      <c r="BR9" s="6"/>
+      <c r="BS9" s="6"/>
+      <c r="BT9" s="6"/>
+      <c r="BU9" s="6"/>
+      <c r="BV9" s="6"/>
+      <c r="BW9" s="6"/>
+      <c r="BX9" s="6"/>
+      <c r="BY9" s="6"/>
+      <c r="BZ9" s="6"/>
+      <c r="CA9" s="6"/>
+      <c r="CB9" s="6"/>
+      <c r="CC9" s="6"/>
+      <c r="CD9" s="6"/>
+      <c r="CE9" s="6"/>
+      <c r="CF9" s="6"/>
+      <c r="CG9" s="6"/>
+      <c r="CH9" s="6"/>
+      <c r="CI9" s="13"/>
     </row>
-    <row r="10" spans="1:66" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:87" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="27" t="s">
         <v>23</v>
       </c>
@@ -1627,7 +1830,7 @@
       <c r="AR10" s="1"/>
       <c r="AS10" s="1"/>
       <c r="AT10" s="1"/>
-      <c r="AU10" s="38"/>
+      <c r="AU10" s="37"/>
       <c r="AV10" s="2"/>
       <c r="AW10" s="2"/>
       <c r="AX10" s="2"/>
@@ -1642,13 +1845,34 @@
       <c r="BG10" s="2"/>
       <c r="BH10" s="2"/>
       <c r="BI10" s="2"/>
-      <c r="BJ10" s="38"/>
+      <c r="BJ10" s="2"/>
       <c r="BK10" s="2"/>
       <c r="BL10" s="2"/>
       <c r="BM10" s="2"/>
-      <c r="BN10" s="12"/>
+      <c r="BN10" s="2"/>
+      <c r="BO10" s="2"/>
+      <c r="BP10" s="2"/>
+      <c r="BQ10" s="2"/>
+      <c r="BR10" s="2"/>
+      <c r="BS10" s="2"/>
+      <c r="BT10" s="2"/>
+      <c r="BU10" s="2"/>
+      <c r="BV10" s="2"/>
+      <c r="BW10" s="2"/>
+      <c r="BX10" s="2"/>
+      <c r="BY10" s="2"/>
+      <c r="BZ10" s="2"/>
+      <c r="CA10" s="2"/>
+      <c r="CB10" s="2"/>
+      <c r="CC10" s="2"/>
+      <c r="CD10" s="2"/>
+      <c r="CE10" s="2"/>
+      <c r="CF10" s="2"/>
+      <c r="CG10" s="2"/>
+      <c r="CH10" s="2"/>
+      <c r="CI10" s="12"/>
     </row>
-    <row r="11" spans="1:66" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:87" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="28" t="s">
         <v>8</v>
       </c>
@@ -1699,28 +1923,49 @@
       <c r="AR11" s="6"/>
       <c r="AS11" s="6"/>
       <c r="AT11" s="6"/>
-      <c r="AU11" s="6"/>
-      <c r="AV11" s="1"/>
-      <c r="AW11" s="1"/>
-      <c r="AX11" s="1"/>
-      <c r="AY11" s="1"/>
-      <c r="AZ11" s="1"/>
-      <c r="BA11" s="1"/>
-      <c r="BB11" s="1"/>
-      <c r="BC11" s="1"/>
-      <c r="BD11" s="6"/>
-      <c r="BE11" s="6"/>
-      <c r="BF11" s="6"/>
-      <c r="BG11" s="6"/>
-      <c r="BH11" s="6"/>
-      <c r="BI11" s="6"/>
+      <c r="AU11" s="38"/>
+      <c r="AV11" s="38"/>
+      <c r="AW11" s="38"/>
+      <c r="AX11" s="38"/>
+      <c r="AY11" s="38"/>
+      <c r="AZ11" s="38"/>
+      <c r="BA11" s="38"/>
+      <c r="BB11" s="38"/>
+      <c r="BC11" s="38"/>
+      <c r="BD11" s="38"/>
+      <c r="BE11" s="38"/>
+      <c r="BF11" s="38"/>
+      <c r="BG11" s="38"/>
+      <c r="BH11" s="38"/>
+      <c r="BI11" s="38"/>
       <c r="BJ11" s="38"/>
-      <c r="BK11" s="6"/>
-      <c r="BL11" s="6"/>
-      <c r="BM11" s="6"/>
-      <c r="BN11" s="13"/>
+      <c r="BK11" s="38"/>
+      <c r="BL11" s="38"/>
+      <c r="BM11" s="38"/>
+      <c r="BN11" s="38"/>
+      <c r="BO11" s="38"/>
+      <c r="BP11" s="38"/>
+      <c r="BQ11" s="38"/>
+      <c r="BR11" s="38"/>
+      <c r="BS11" s="38"/>
+      <c r="BT11" s="38"/>
+      <c r="BU11" s="38"/>
+      <c r="BV11" s="38"/>
+      <c r="BW11" s="38"/>
+      <c r="BX11" s="38"/>
+      <c r="BY11" s="38"/>
+      <c r="BZ11" s="38"/>
+      <c r="CA11" s="38"/>
+      <c r="CB11" s="37"/>
+      <c r="CC11" s="6"/>
+      <c r="CD11" s="6"/>
+      <c r="CE11" s="6"/>
+      <c r="CF11" s="6"/>
+      <c r="CG11" s="6"/>
+      <c r="CH11" s="6"/>
+      <c r="CI11" s="13"/>
     </row>
-    <row r="12" spans="1:66" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:87" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="32" t="s">
         <v>10</v>
       </c>
@@ -1772,7 +2017,6 @@
       <c r="AQ12" s="2"/>
       <c r="AR12" s="2"/>
       <c r="AS12" s="2"/>
-      <c r="AT12" s="2"/>
       <c r="AU12" s="2"/>
       <c r="AV12" s="2"/>
       <c r="AW12" s="2"/>
@@ -1782,19 +2026,40 @@
       <c r="BA12" s="2"/>
       <c r="BB12" s="2"/>
       <c r="BC12" s="2"/>
-      <c r="BD12" s="40"/>
-      <c r="BE12" s="40"/>
-      <c r="BF12" s="40"/>
-      <c r="BG12" s="40"/>
-      <c r="BH12" s="40"/>
-      <c r="BI12" s="40"/>
-      <c r="BJ12" s="38"/>
+      <c r="BD12" s="2"/>
+      <c r="BE12" s="2"/>
+      <c r="BF12" s="2"/>
+      <c r="BG12" s="2"/>
+      <c r="BH12" s="2"/>
+      <c r="BI12" s="2"/>
+      <c r="BJ12" s="2"/>
       <c r="BK12" s="2"/>
       <c r="BL12" s="2"/>
       <c r="BM12" s="2"/>
-      <c r="BN12" s="12"/>
+      <c r="BN12" s="2"/>
+      <c r="BO12" s="2"/>
+      <c r="BP12" s="2"/>
+      <c r="BQ12" s="2"/>
+      <c r="BR12" s="2"/>
+      <c r="BS12" s="2"/>
+      <c r="BT12" s="2"/>
+      <c r="BU12" s="2"/>
+      <c r="BV12" s="2"/>
+      <c r="BW12" s="2"/>
+      <c r="BX12" s="2"/>
+      <c r="BY12" s="2"/>
+      <c r="BZ12" s="2"/>
+      <c r="CA12" s="2"/>
+      <c r="CB12" s="2"/>
+      <c r="CC12" s="2"/>
+      <c r="CD12" s="2"/>
+      <c r="CE12" s="2"/>
+      <c r="CF12" s="2"/>
+      <c r="CG12" s="2"/>
+      <c r="CH12" s="2"/>
+      <c r="CI12" s="12"/>
     </row>
-    <row r="13" spans="1:66" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:87" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="30" t="s">
         <v>11</v>
       </c>
@@ -1853,18 +2118,39 @@
       <c r="AZ13" s="19"/>
       <c r="BA13" s="19"/>
       <c r="BB13" s="19"/>
-      <c r="BC13" s="19"/>
-      <c r="BD13" s="46"/>
-      <c r="BE13" s="46"/>
-      <c r="BF13" s="46"/>
-      <c r="BG13" s="46"/>
-      <c r="BH13" s="46"/>
-      <c r="BI13" s="46"/>
-      <c r="BJ13" s="39"/>
-      <c r="BK13" s="19"/>
-      <c r="BL13" s="19"/>
-      <c r="BM13" s="19"/>
-      <c r="BN13" s="15"/>
+      <c r="BC13" s="45"/>
+      <c r="BD13" s="45"/>
+      <c r="BE13" s="45"/>
+      <c r="BF13" s="45"/>
+      <c r="BG13" s="45"/>
+      <c r="BH13" s="45"/>
+      <c r="BI13" s="45"/>
+      <c r="BJ13" s="45"/>
+      <c r="BK13" s="45"/>
+      <c r="BL13" s="45"/>
+      <c r="BM13" s="45"/>
+      <c r="BN13" s="45"/>
+      <c r="BO13" s="45"/>
+      <c r="BP13" s="45"/>
+      <c r="BQ13" s="45"/>
+      <c r="BR13" s="45"/>
+      <c r="BS13" s="45"/>
+      <c r="BT13" s="45"/>
+      <c r="BU13" s="45"/>
+      <c r="BV13" s="45"/>
+      <c r="BW13" s="45"/>
+      <c r="BX13" s="45"/>
+      <c r="BY13" s="45"/>
+      <c r="BZ13" s="45"/>
+      <c r="CA13" s="45"/>
+      <c r="CB13" s="45"/>
+      <c r="CC13" s="45"/>
+      <c r="CD13" s="45"/>
+      <c r="CE13" s="45"/>
+      <c r="CF13" s="45"/>
+      <c r="CG13" s="19"/>
+      <c r="CH13" s="19"/>
+      <c r="CI13" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -1880,23 +2166,23 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="52.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="52.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="91.8" x14ac:dyDescent="1.65">
-      <c r="A1" s="41" t="s">
+    <row r="1" spans="1:1" ht="92.25" x14ac:dyDescent="1.35">
+      <c r="A1" s="39" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="91.8" x14ac:dyDescent="1.65">
-      <c r="A2" s="42" t="s">
+    <row r="2" spans="1:1" ht="92.25" x14ac:dyDescent="1.35">
+      <c r="A2" s="40" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="91.8" x14ac:dyDescent="1.65">
-      <c r="A3" s="43" t="s">
+    <row r="3" spans="1:1" ht="92.25" x14ac:dyDescent="1.35">
+      <c r="A3" s="41" t="s">
         <v>31</v>
       </c>
     </row>
